--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBloodpressure.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBloodpressure.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NO VitalSigns Observation - Blood Pressure</t>
+    <t>No VitalSigns Observation - Blood Pressure</t>
   </si>
   <si>
     <t>Status</t>

--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBloodpressure.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBloodpressure.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>No VitalSigns Observation - Blood Pressure</t>
+    <t>Norwegian base profile for VitalSigns Observation - Blood Pressure</t>
   </si>
   <si>
     <t>Status</t>
@@ -81,13 +81,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Blood pressure information, adding SNOMED CT codes to the base profile.</t>
+    <t>Base profile for Norwegian Vital Signs Observation Blood pressure information.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>To record the systemic arterial blood pressure of an individual using SNOMED CT codes in addition to the base profile.</t>
+    <t>To record the systemic arterial blood pressure of an individual.</t>
   </si>
   <si>
     <t>Copyright</t>
